--- a/ESM_Italy_7/case_studies/Italy24/scenarios/d.1_NZE-NUC_7/inputs/TechProductionMix.xlsx
+++ b/ESM_Italy_7/case_studies/Italy24/scenarios/d.1_NZE-NUC_7/inputs/TechProductionMix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcarm\Documents\GitHub\ESM-Italy\case_studies\Italy24\scenarios\Nuclear_NZ\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\ESM-Italy\ESM_Italy_7\case_studies\Italy24\scenarios\d.1_NZE-NUC_7\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6950CB7F-DB91-461C-895A-883055806C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17BCACC-3847-4EFF-BF01-2F7DEB818AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17676" windowHeight="12084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r.A" sheetId="1" r:id="rId1"/>
@@ -541,26 +541,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O46" sqref="O46"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -744,7 +744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1990</v>
       </c>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1991</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1992</v>
       </c>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1993</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1994</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1995</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1996</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1997</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1998</v>
       </c>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1999</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2000</v>
       </c>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2001</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2002</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2003</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2004</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2006</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2007</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2008</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2009</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2010</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2011</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2012</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2013</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2014</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2015</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2017</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2018</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2019</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2020</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2021</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2022</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2023</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2024</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2025</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2026</v>
       </c>
@@ -1484,82 +1484,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2027</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
       <c r="V40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2028</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
       <c r="V41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2029</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
       <c r="V42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2030</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2031</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2032</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2033</v>
       </c>
@@ -1567,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2034</v>
       </c>
@@ -1575,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2035</v>
       </c>
@@ -1583,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2036</v>
       </c>
@@ -1591,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2037</v>
       </c>
@@ -1599,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2038</v>
       </c>
@@ -1607,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2039</v>
       </c>
@@ -1615,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2040</v>
       </c>
@@ -1623,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2041</v>
       </c>
@@ -1631,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2042</v>
       </c>
@@ -1639,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2043</v>
       </c>
@@ -1647,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2044</v>
       </c>
@@ -1655,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2045</v>
       </c>
@@ -1663,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2046</v>
       </c>
@@ -1671,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2047</v>
       </c>
@@ -1679,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2048</v>
       </c>
@@ -1687,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2049</v>
       </c>
@@ -1695,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2050</v>
       </c>
@@ -1703,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2051</v>
       </c>
@@ -1711,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2052</v>
       </c>
@@ -1719,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2053</v>
       </c>
@@ -1727,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2054</v>
       </c>
@@ -1735,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2055</v>
       </c>
@@ -1743,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2056</v>
       </c>
@@ -1751,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2057</v>
       </c>
@@ -1759,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2058</v>
       </c>
@@ -1767,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2059</v>
       </c>
@@ -1775,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2060</v>
       </c>
@@ -1783,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2061</v>
       </c>
@@ -1791,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2062</v>
       </c>
@@ -1799,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2063</v>
       </c>
@@ -1807,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2064</v>
       </c>
@@ -1815,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2065</v>
       </c>
@@ -1823,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2066</v>
       </c>
@@ -1831,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2067</v>
       </c>
@@ -1839,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2068</v>
       </c>
@@ -1847,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2069</v>
       </c>
@@ -1855,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2070</v>
       </c>
